--- a/output/ConceptMapOpenEHRToOMOP.xlsx
+++ b/output/ConceptMapOpenEHRToOMOP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="98">
   <si>
     <t>Property</t>
   </si>
@@ -130,19 +130,13 @@
     <t>Source</t>
   </si>
   <si>
-    <t>https://ckm.openehr.org/ckm</t>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Relationship</t>
   </si>
   <si>
     <t>Target</t>
-  </si>
-  <si>
-    <t>http://athena.ohdsi.org/search-terms/terms</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Relationship</t>
   </si>
   <si>
     <t>openEHR-EHR-OBSERVATION.heart_rate_variability.v0</t>
@@ -462,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -621,22 +615,6 @@
         <v>31</v>
       </c>
       <c r="B19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -656,84 +634,84 @@
         <v>32</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="E2" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="D3" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="E3" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="D4" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="E4" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="E5" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -754,118 +732,118 @@
         <v>32</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="D3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="E3" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="E4" t="s" s="2">
         <v>62</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="E5" t="s" s="2">
         <v>66</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -886,50 +864,50 @@
         <v>32</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="E3" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -950,118 +928,118 @@
         <v>32</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="E3" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="E5" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="E6" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="E7" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
